--- a/data/income_statement/2digits/size/94_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/94_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>94-Activities of membership organizations</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>94-Activities of membership organizations</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>33327.02065000001</v>
+        <v>30741.00553</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>39081.3984</v>
+        <v>40195.59875</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>194729.72316</v>
+        <v>187239.82379</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>363061.01176</v>
+        <v>355681.76924</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>432698.49047</v>
+        <v>415872.09036</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>59051.70572999999</v>
+        <v>48419.16661</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>57018.57974</v>
+        <v>45533.30374</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>48696.88517</v>
+        <v>40511.74583</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>83354.68633</v>
+        <v>71745.11652</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>70339.69287</v>
+        <v>70315.99815</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>97858.03258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>93396.78306999999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>79603.486</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>32481.49004</v>
+        <v>30006.80588</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>36389.14615</v>
+        <v>37823.3691</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>185316.96429</v>
+        <v>178161.49837</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>347436.54051</v>
+        <v>340499.25699</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>418567.55005</v>
+        <v>402379.2392600001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>52624.47404</v>
+        <v>44281.30762</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>50198.26209</v>
+        <v>40521.90426</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>38015.71666</v>
+        <v>31588.27358</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>72226.83181</v>
+        <v>62714.6309</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>62122.54016</v>
+        <v>62098.84544</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>88914.51234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>85261.16565000001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>72976.802</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>0</v>
@@ -1052,7 +968,7 @@
         <v>485.65661</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>522.59406</v>
+        <v>497.25316</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>1276.34812</v>
@@ -1060,128 +976,148 @@
       <c r="M7" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>522.092</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>845.53061</v>
+        <v>734.19965</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>2113.8189</v>
+        <v>1793.7963</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>9410.959870000001</v>
+        <v>9076.52642</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>15333.79407</v>
+        <v>14891.83507</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>13644.45703</v>
+        <v>13006.36771</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>6288.4902</v>
+        <v>3999.1175</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>6820.317649999999</v>
+        <v>5011.399479999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>10195.5119</v>
+        <v>8437.815640000001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>10605.26046</v>
+        <v>8533.232460000001</v>
       </c>
       <c r="L8" s="48" t="n">
         <v>6940.80459</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>8943.52024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>8135.61742</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>6104.592</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>129.52472</v>
+        <v>129.27048</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>350.54508</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>610.1155</v>
+        <v>595.02985</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>447.18421</v>
+        <v>433.86332</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>258.22366</v>
+        <v>252.60019</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>140.82856</v>
+        <v>140.69381</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>231.96699</v>
+        <v>230.51965</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>12.10576</v>
+        <v>29.4976</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>92.87274000000001</v>
+        <v>59.63831</v>
       </c>
       <c r="L9" s="47" t="n">
         <v>244.01246</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2055.69176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2055.26792</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1289.45</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>79.45957999999999</v>
+        <v>79.20533999999999</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>27.65233</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>223.99757</v>
+        <v>209.79088</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>225.78781</v>
+        <v>212.46692</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>161.80019</v>
+        <v>156.17672</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>140.49914</v>
+        <v>140.36439</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>231.96699</v>
+        <v>230.51965</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>12.10576</v>
+        <v>12.81228</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>28.73551</v>
+        <v>8.25108</v>
       </c>
       <c r="L10" s="48" t="n">
         <v>229.45842</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1902.06261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1901.63877</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1281.696</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>50.06514</v>
@@ -1190,7 +1126,7 @@
         <v>281.23414</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>385.56793</v>
+        <v>385.23897</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>195.5534</v>
@@ -1205,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>0</v>
+        <v>16.68532</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>51.38723</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>153.62915</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>7.754</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1229,7 +1170,7 @@
         <v>41.65861</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>25.843</v>
@@ -1247,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>12.75</v>
+        <v>0</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>0</v>
@@ -1255,89 +1196,104 @@
       <c r="M12" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>33197.49593</v>
+        <v>30611.73505</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>38730.85332</v>
+        <v>39845.05367</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>194119.60766</v>
+        <v>186644.79394</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>362613.82755</v>
+        <v>355247.9059199999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>432440.26681</v>
+        <v>415619.4901699999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>58910.87716999999</v>
+        <v>48278.4728</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>56786.61275</v>
+        <v>45302.78408999999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>48684.77941</v>
+        <v>40482.24823</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>83261.81359000001</v>
+        <v>71685.47820999999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>70095.68041</v>
+        <v>70071.98569</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>95802.34082</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>91341.51515000001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>78314.03599999999</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>27695.71756</v>
+        <v>25829.51467</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>34398.22539</v>
+        <v>35744.72547</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>170965.08722</v>
+        <v>164428.61016</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>320003.05402</v>
+        <v>314214.562</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>395191.03063</v>
+        <v>380816.92973</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>46670.04846</v>
+        <v>39623.50397</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>38811.07253</v>
+        <v>32036.86382</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>37351.79899</v>
+        <v>32691.96629</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>68426.89256000001</v>
+        <v>60949.97433</v>
       </c>
       <c r="L14" s="47" t="n">
         <v>58863.37204</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>84178.66254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>80529.96223999999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>69498.33</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>0</v>
@@ -1346,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>16528.7182</v>
+        <v>15980.87795</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>18741.08223</v>
+        <v>21117.91148</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>21321.89081</v>
+        <v>24331.76997</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>3735.56656</v>
@@ -1361,7 +1317,7 @@
         <v>4079.04472</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2430.5946</v>
+        <v>4119.91432</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>2537.30056</v>
@@ -1372,89 +1328,104 @@
       <c r="M15" s="48" t="n">
         <v>1558.99475</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>10.215</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>20795.83602</v>
+        <v>19127.32871</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>32058.77685</v>
+        <v>33611.26286</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>137870.3798</v>
+        <v>132532.15887</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>278666.18879</v>
+        <v>272056.42248</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>358919.0292</v>
+        <v>342968.57048</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>25746.08725</v>
+        <v>19306.17338</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>18015.96972</v>
+        <v>12214.36493</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>26675.19807</v>
+        <v>21399.64678</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>57951.19911</v>
+        <v>51546.12125</v>
       </c>
       <c r="L16" s="48" t="n">
         <v>31556.66055</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>55380.79731</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>52238.46224</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>45944.6</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>6899.881539999999</v>
+        <v>6702.185959999999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>2278.27734</v>
+        <v>2072.29141</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>16565.98922</v>
+        <v>15915.57334</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>20203.00651</v>
+        <v>18647.45155</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>14805.99183</v>
+        <v>13372.47049</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>17188.39465</v>
+        <v>16581.76403</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>16701.45809</v>
+        <v>15728.85417</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>8239.08632</v>
+        <v>7172.40519</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>7929.26919</v>
+        <v>6857.42882</v>
       </c>
       <c r="L17" s="48" t="n">
         <v>22709.95804</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>26925.64794</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>26419.28271</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>23543.515</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1478,7 +1449,7 @@
         <v>14.6</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>6.92</v>
+        <v>0</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>9.123700000000001</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>313.22254</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>5501.77837</v>
+        <v>4782.22038</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>4332.62793</v>
+        <v>4100.3282</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>23154.52044</v>
+        <v>22216.18378</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>42610.77353</v>
+        <v>41033.34392</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>37249.23618</v>
+        <v>34802.56044</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>12240.82871</v>
+        <v>8654.96883</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>17975.54022</v>
+        <v>13265.92027</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>11332.98042</v>
+        <v>7790.281940000001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>14834.92103</v>
+        <v>10735.50388</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>11232.30837</v>
+        <v>11208.61365</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>11623.67828</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>10811.55291</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>8815.706</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>5490.4969</v>
+        <v>3828.31456</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>6287.052900000001</v>
+        <v>6020.89628</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>24170.84586</v>
+        <v>21895.70879</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>44764.6613</v>
+        <v>40272.72416</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>37809.53098</v>
+        <v>32500.07424</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>17302.80479</v>
+        <v>11809.79656</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>22309.49469</v>
+        <v>14015.67268</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>15124.88617</v>
+        <v>8708.348019999999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>21858.05945</v>
+        <v>13053.39054</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>11879.43952</v>
+        <v>11869.30954</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>12484.14483</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>11257.23738</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>8326.724</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1580,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>4.21318</v>
+        <v>0</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>2.56157</v>
@@ -1606,38 +1592,43 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>171.97769</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>311.80182</v>
+        <v>311.75183</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1791.44409</v>
+        <v>1720.01534</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>5910.21919</v>
+        <v>5815.583070000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>6945.330440000001</v>
+        <v>6630.3915</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1450.73436</v>
+        <v>1327.78046</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1258.78924</v>
+        <v>1029.1337</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>764.02706</v>
+        <v>477.13965</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>771.29545</v>
+        <v>406.91395</v>
       </c>
       <c r="L22" s="48" t="n">
         <v>514.4484600000001</v>
@@ -1645,128 +1636,148 @@
       <c r="M22" s="48" t="n">
         <v>104.56579</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>5318.51921</v>
+        <v>3656.33687</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>5975.25108</v>
+        <v>5709.14445</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>22375.18859</v>
+        <v>20175.69345</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>38851.88054</v>
+        <v>34454.57952000001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>30864.20054</v>
+        <v>25869.68274</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>15852.07043</v>
+        <v>10482.0161</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>21050.70545</v>
+        <v>12986.53898</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>14360.85911</v>
+        <v>8231.20837</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>21086.764</v>
+        <v>12646.47659</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>11364.99106</v>
+        <v>11354.86108</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>12379.57904</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>11152.67159</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>8326.724</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>11.28146999999997</v>
+        <v>953.9058200000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-1954.42497</v>
+        <v>-1920.56808</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-1016.32542</v>
+        <v>320.47499</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-2153.887769999999</v>
+        <v>760.6197600000003</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-560.2947999999993</v>
+        <v>2302.4862</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-5061.97608</v>
+        <v>-3154.82773</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-4333.95447</v>
+        <v>-749.7524100000001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-3791.90575</v>
+        <v>-918.0660799999999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-7023.13842</v>
+        <v>-2317.88666</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-647.13115</v>
+        <v>-660.69589</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-860.4665500000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-445.68447</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>488.982</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1185.13665</v>
+        <v>1061.67413</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>941.48068</v>
+        <v>850.0089499999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>4037.12076</v>
+        <v>3597.15626</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>3834.34804</v>
+        <v>2987.67714</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>6825.614939999999</v>
+        <v>3342.10507</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>8917.565050000001</v>
+        <v>2475.5925</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>3871.83958</v>
+        <v>2246.14574</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>3733.58778</v>
+        <v>2576.56759</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>6966.33737</v>
+        <v>3466.70052</v>
       </c>
       <c r="L25" s="47" t="n">
         <v>3908.51562</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>6026.67158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>5550.39061</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>4110.617</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1787,13 +1798,13 @@
         <v>0</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>28.40481</v>
+        <v>0</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>320.98737</v>
+        <v>0</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>339.79473</v>
+        <v>0</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,77 +1856,87 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>281.41635</v>
+        <v>205.0555</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>134.32098</v>
+        <v>63.75901</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>156.00725</v>
+        <v>116.05225</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>481.52397</v>
+        <v>259.20412</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>295.4051700000001</v>
+        <v>158.18995</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>350.78086</v>
+        <v>230.76658</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>544.67555</v>
+        <v>287.72289</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>433.71531</v>
+        <v>331.31026</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>993.39976</v>
+        <v>608.94754</v>
       </c>
       <c r="L28" s="48" t="n">
         <v>727.46114</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>934.65935</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>870.64645</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>827.553</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>13.51949</v>
+        <v>13.39168</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>8.883799999999999</v>
+        <v>8.827459999999999</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>739.09394</v>
+        <v>728.1615</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>837.99365</v>
+        <v>837.91052</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>808.7858</v>
+        <v>801.18911</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>5.66242</v>
+        <v>5.606439999999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>33.36436</v>
+        <v>33.30058</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>11.91765</v>
+        <v>11.84098</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>57.51401</v>
+        <v>0.90164</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>120.24951</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>1559.84653</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>862.807</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>15.53225</v>
@@ -1973,7 +2009,7 @@
         <v>90.56643</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>172.24005</v>
+        <v>162.28205</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>2.06914</v>
@@ -1985,7 +2021,7 @@
         <v>10.47221</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>0</v>
+        <v>0.15669</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>0</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>0.10082</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>5.64754</v>
@@ -2012,7 +2053,7 @@
         <v>1034.30783</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>10.54984</v>
+        <v>9.153499999999999</v>
       </c>
       <c r="G32" s="48" t="n">
         <v>7.28601</v>
@@ -2027,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>13.20092</v>
+        <v>7.81804</v>
       </c>
       <c r="L32" s="48" t="n">
         <v>68.16477</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>43.76645</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>65.072</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,131 +2164,151 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>748.77151</v>
+        <v>701.79765</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>797.88766</v>
+        <v>777.03424</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1779.97753</v>
+        <v>1390.90047</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>2171.66705</v>
+        <v>1558.75347</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>5712.06882</v>
+        <v>2373.37086</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>8356.560170000001</v>
+        <v>2034.65788</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>3164.80693</v>
+        <v>1824.53434</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2966.96745</v>
+        <v>2233.25966</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>5546.15274</v>
+        <v>2832.75809</v>
       </c>
       <c r="L35" s="48" t="n">
         <v>2726.01639</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>3488.29843</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>3076.03036</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2355.185</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>61.80158</v>
+        <v>61.41929</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>43.95047</v>
+        <v>40.30571</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>854.08289</v>
+        <v>838.12747</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>761.95197</v>
+        <v>661.6736500000001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>3104.87124</v>
+        <v>555.03022</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>5515.20575</v>
+        <v>385.51496</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>836.95766</v>
+        <v>577.1036800000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>469.36464</v>
+        <v>336.79931</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>496.67345</v>
+        <v>352.7765</v>
       </c>
       <c r="L36" s="47" t="n">
         <v>1051.44074</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1783.42683</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1783.26324</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1162.929</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>14.16183</v>
+        <v>13.78374</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>12.85638</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>9.088419999999999</v>
+        <v>9.08142</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>71.06502999999999</v>
+        <v>69.62572</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>317.53286</v>
+        <v>298.03748</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>6.53378</v>
+        <v>5.65847</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>13.55335</v>
+        <v>13.04162</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>16.51176</v>
+        <v>15.44175</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>15.83694</v>
+        <v>15.55381</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1.0108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>0.84721</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>7.575</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>0.54462</v>
+        <v>0.54042</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>0</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>1638.22555</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>1104.754</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>27.51405</v>
@@ -2339,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>2.10445</v>
+        <v>1.72548</v>
       </c>
       <c r="L40" s="48" t="n">
         <v>43.26430000000001</v>
@@ -2347,11 +2428,16 @@
       <c r="M40" s="48" t="n">
         <v>38.3837</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>27.849</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2366,13 +2452,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>38.02649</v>
+        <v>0</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>20.01912</v>
+        <v>0</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,38 +2516,43 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>19.58108</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>25.58301</v>
+        <v>21.93825</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>54.87566</v>
+        <v>38.92724</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>298.31391</v>
+        <v>199.4749</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2741.11168</v>
+        <v>248.79253</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>5427.8682</v>
+        <v>299.05272</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>544.6528199999999</v>
+        <v>305.32969</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>452.85288</v>
+        <v>321.35756</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>363.20688</v>
+        <v>219.97203</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>179.95216</v>
@@ -2464,89 +2560,104 @@
       <c r="M43" s="48" t="n">
         <v>105.80678</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>22.751</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>47.66154</v>
+        <v>45.80905000000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>44.47441999999999</v>
+        <v>39.56533</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>436.9147</v>
+        <v>242.44355</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1231.79302</v>
+        <v>1000.15047</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1282.92847</v>
+        <v>1262.94821</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>81.30082</v>
+        <v>74.51690000000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>136.73307</v>
+        <v>124.89803</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>515.11804</v>
+        <v>577.33488</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1083.07427</v>
+        <v>1006.70931</v>
       </c>
       <c r="L44" s="47" t="n">
         <v>658.52675</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>781.74614</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>685.84118</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>302.524</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>47.66154</v>
+        <v>45.80905000000001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>44.47441999999999</v>
+        <v>39.56533</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>234.97935</v>
+        <v>188.59914</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>874.1401500000001</v>
+        <v>795.4385099999998</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>974.1174400000001</v>
+        <v>890.85333</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>81.30082</v>
+        <v>74.51690000000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>134.94147</v>
+        <v>123.10643</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>515.11804</v>
+        <v>548.08002</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>821.0893199999999</v>
+        <v>744.7243599999999</v>
       </c>
       <c r="L45" s="48" t="n">
         <v>533.18516</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>679.07038</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>583.16542</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>302.524</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2555,13 +2666,13 @@
         <v>0</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>201.93535</v>
+        <v>53.84441</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>357.65287</v>
+        <v>204.71196</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>308.81103</v>
+        <v>372.09488</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>0</v>
@@ -2570,7 +2681,7 @@
         <v>1.7916</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>0</v>
+        <v>29.25486</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>261.98495</v>
@@ -2581,89 +2692,104 @@
       <c r="M46" s="48" t="n">
         <v>102.67576</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>1086.955</v>
+        <v>1908.35161</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-1101.36918</v>
+        <v>-1150.43017</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1729.79775</v>
+        <v>2837.06023</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-313.2847200000002</v>
+        <v>2086.47278</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1877.52043</v>
+        <v>3826.61284</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-1740.9176</v>
+        <v>-1139.26709</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-1435.80562</v>
+        <v>794.39162</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-1042.80065</v>
+        <v>744.3673199999999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-1636.54877</v>
+        <v>-210.67195</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1551.41698</v>
+        <v>1537.85224</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2601.03206</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2635.60172</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>3134.146</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>136.30664</v>
+        <v>39.9727</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>226.84438</v>
+        <v>48.27485</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>577.7474</v>
+        <v>238.4306</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>857.76701</v>
+        <v>603.92767</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1539.2265</v>
+        <v>1210.60564</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>391.15763</v>
+        <v>209.54427</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1841.34795</v>
+        <v>840.25158</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>233.77477</v>
+        <v>127.69289</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1536.36316</v>
+        <v>1212.58294</v>
       </c>
       <c r="L48" s="47" t="n">
         <v>758.57308</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>284.89339</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>89.77849000000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>147.628</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0.21326</v>
@@ -2675,16 +2801,16 @@
         <v>58.2979</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>47.85052</v>
+        <v>47.67648000000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>20.77725</v>
+        <v>0.55155</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>3.97463</v>
+        <v>2.97496</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>644.26336</v>
+        <v>0</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>0</v>
@@ -2698,89 +2824,104 @@
       <c r="M49" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>136.09338</v>
+        <v>39.75944</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>226.84438</v>
+        <v>48.27485</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>519.4494999999999</v>
+        <v>180.1327</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>809.91649</v>
+        <v>556.25119</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1518.44925</v>
+        <v>1210.05409</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>387.183</v>
+        <v>206.56931</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1197.08459</v>
+        <v>840.25158</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>233.77477</v>
+        <v>127.69289</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1509.82701</v>
+        <v>1186.04679</v>
       </c>
       <c r="L50" s="48" t="n">
         <v>258.57308</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>284.89339</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>89.77849000000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>130.148</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>31.38574</v>
+        <v>26.55647</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>130.55328</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>394.41206</v>
+        <v>337.24101</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>829.9891499999999</v>
+        <v>599.3581899999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1142.30749</v>
+        <v>909.24829</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>223.93798</v>
+        <v>156.2719</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>521.74191</v>
+        <v>182.12316</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>370.14138</v>
+        <v>277.47819</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>323.30459</v>
+        <v>161.76935</v>
       </c>
       <c r="L51" s="47" t="n">
         <v>452.87416</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>361.61412</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>354.72125</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2789,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>16.99713</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>128.44267</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>13.12721</v>
@@ -2831,22 +2977,22 @@
         <v>17.29938</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>177.94429</v>
+        <v>133.0971</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>210.093</v>
+        <v>87.19067</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2.33909</v>
+        <v>0.24456</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>96.02691</v>
+        <v>7.52955</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>124.56</v>
+        <v>100.56</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>26.6135</v>
+        <v>14.6135</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>24.83709</v>
@@ -2854,89 +3000,104 @@
       <c r="M53" s="48" t="n">
         <v>100.63923</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>1.825</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>18.25853</v>
+        <v>13.42926</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>130.55328</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>370.11268</v>
+        <v>319.94163</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>635.04773</v>
+        <v>449.26396</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>932.21449</v>
+        <v>822.05762</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>221.59889</v>
+        <v>156.02734</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>425.715</v>
+        <v>174.59361</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>245.58138</v>
+        <v>176.91819</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>284.27076</v>
+        <v>134.73552</v>
       </c>
       <c r="L54" s="48" t="n">
         <v>308.04116</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>132.53222</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>125.63935</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2.065</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1191.8759</v>
+        <v>1921.76784</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-1005.07808</v>
+        <v>-1232.7086</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1913.13309</v>
+        <v>2738.24982</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-285.5068600000004</v>
+        <v>2091.04226</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>2274.43944</v>
+        <v>4127.97019</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-1573.69795</v>
+        <v>-1085.99472</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-116.19958</v>
+        <v>1452.52004</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-1179.16726</v>
+        <v>594.5820200000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-423.4902</v>
+        <v>840.1416400000001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1857.1159</v>
+        <v>1843.55116</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2524.31133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2370.65896</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>3277.884</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>403.44786</v>
@@ -2945,73 +3106,81 @@
         <v>99.59494000000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>407.30098</v>
+        <v>394.10392</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>280.24578</v>
+        <v>269.72335</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>339.1178</v>
+        <v>322.97054</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>30.96438</v>
+        <v>20.49934</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>647.8087200000001</v>
+        <v>582.64664</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>162.11376</v>
+        <v>148.17184</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>140.61379</v>
+        <v>59.2146</v>
       </c>
       <c r="L56" s="47" t="n">
         <v>479.63412</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>446.0819</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>443.75879</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>723.968</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>788.42804</v>
+        <v>1518.31998</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-1104.67302</v>
+        <v>-1332.30354</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>1505.83211</v>
+        <v>2344.1459</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-565.7526400000002</v>
+        <v>1821.31891</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>1935.32164</v>
+        <v>3804.999649999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-1604.66233</v>
+        <v>-1106.49406</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-764.0083000000001</v>
+        <v>869.8734000000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-1341.28102</v>
+        <v>446.41018</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-564.10399</v>
+        <v>780.92704</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1377.48178</v>
+        <v>1363.91704</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2078.22943</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1926.90017</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2553.916</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>